--- a/src/analysis_examples/circadb/results_jtk/cosinor_10597648_myd88_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10597648_myd88_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2150238138664064, 0.35432445215704417]</t>
+          <t>[0.21503071327831136, 0.3543175527451392]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.075423160581181e-08</v>
+        <v>3.070408838290462e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.075423160581181e-08</v>
+        <v>3.070408838290462e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-1.05663176336954</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.40989801440064455, 0.4844182210773077]</t>
+          <t>[0.4099147877657819, 0.48440144771217036]</t>
         </is>
       </c>
       <c r="U2" t="n">
